--- a/학습자료/단답형/조선.xlsx
+++ b/학습자료/단답형/조선.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192">
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207">
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212">
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219">
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -6678,7 +6678,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234">
@@ -7070,7 +7070,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -7098,7 +7098,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
@@ -7126,7 +7126,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240">
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
@@ -7350,7 +7350,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
@@ -7434,7 +7434,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">

--- a/학습자료/단답형/조선.xlsx
+++ b/학습자료/단답형/조선.xlsx
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134">
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -5334,7 +5334,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -6090,7 +6090,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
@@ -7014,7 +7014,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236">
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">

--- a/학습자료/단답형/조선.xlsx
+++ b/학습자료/단답형/조선.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -6090,7 +6090,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
